--- a/Code/Results/Cases/Case_3_148/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_148/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.51609947498683</v>
+        <v>12.58994779371838</v>
       </c>
       <c r="C2">
-        <v>7.448196894509436</v>
+        <v>8.040477012768791</v>
       </c>
       <c r="D2">
-        <v>4.974891069303263</v>
+        <v>6.126848382458395</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>22.73596947789455</v>
+        <v>30.12423707289883</v>
       </c>
       <c r="G2">
-        <v>30.83632491723637</v>
+        <v>38.90214350870353</v>
       </c>
       <c r="H2">
-        <v>10.79083154210003</v>
+        <v>16.81193118659591</v>
       </c>
       <c r="I2">
-        <v>17.64913360784598</v>
+        <v>26.63419934908758</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.459002538201</v>
+        <v>9.889463519974987</v>
       </c>
       <c r="L2">
-        <v>7.064096957188902</v>
+        <v>11.01558100805911</v>
       </c>
       <c r="M2">
-        <v>10.35412494462559</v>
+        <v>14.842873163098</v>
       </c>
       <c r="N2">
-        <v>13.4746287355995</v>
+        <v>20.73291257019853</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.59898376590758</v>
+        <v>12.37865971239469</v>
       </c>
       <c r="C3">
-        <v>7.218067891987891</v>
+        <v>7.964693567312262</v>
       </c>
       <c r="D3">
-        <v>4.901111490408001</v>
+        <v>6.100410957355625</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22.27688055745968</v>
+        <v>30.12565910354234</v>
       </c>
       <c r="G3">
-        <v>30.19613189840235</v>
+        <v>38.89566614627927</v>
       </c>
       <c r="H3">
-        <v>10.78658022960762</v>
+        <v>16.85065633576359</v>
       </c>
       <c r="I3">
-        <v>17.65153049431124</v>
+        <v>26.70162062514474</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.75261021729606</v>
+        <v>9.730037564699936</v>
       </c>
       <c r="L3">
-        <v>6.960364280854161</v>
+        <v>11.02324636548798</v>
       </c>
       <c r="M3">
-        <v>10.0145019592941</v>
+        <v>14.81590408389555</v>
       </c>
       <c r="N3">
-        <v>13.682139860344</v>
+        <v>20.79429618185272</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.06042222771106</v>
+        <v>12.24992547338738</v>
       </c>
       <c r="C4">
-        <v>7.072765076326147</v>
+        <v>7.916949734598361</v>
       </c>
       <c r="D4">
-        <v>4.85479674339964</v>
+        <v>6.083780789801942</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22.0089847332155</v>
+        <v>30.13368181655331</v>
       </c>
       <c r="G4">
-        <v>29.82534466965235</v>
+        <v>38.90212889679466</v>
       </c>
       <c r="H4">
-        <v>10.7906267418184</v>
+        <v>16.87707118599172</v>
       </c>
       <c r="I4">
-        <v>17.66518698671783</v>
+        <v>26.74765762411512</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.29542145173422</v>
+        <v>9.632966189882888</v>
       </c>
       <c r="L4">
-        <v>6.899469296779815</v>
+        <v>11.02960154499391</v>
       </c>
       <c r="M4">
-        <v>9.804966511880139</v>
+        <v>14.80179190116682</v>
       </c>
       <c r="N4">
-        <v>13.81262414442588</v>
+        <v>20.83378575779217</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.8349701477316</v>
+        <v>12.19778760856527</v>
       </c>
       <c r="C5">
-        <v>7.012581410004766</v>
+        <v>7.897195553627273</v>
       </c>
       <c r="D5">
-        <v>4.835678794365974</v>
+        <v>6.076905231928023</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.90338009210216</v>
+        <v>30.13874919876501</v>
       </c>
       <c r="G5">
-        <v>29.67988849851123</v>
+        <v>38.90738682432981</v>
       </c>
       <c r="H5">
-        <v>10.79389574497323</v>
+        <v>16.88849828565708</v>
       </c>
       <c r="I5">
-        <v>17.67370780186812</v>
+        <v>26.76758351532482</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.10322282332086</v>
+        <v>9.593666640250724</v>
       </c>
       <c r="L5">
-        <v>6.875369989013502</v>
+        <v>11.03260638962504</v>
       </c>
       <c r="M5">
-        <v>9.719450309710826</v>
+        <v>14.79666097424131</v>
       </c>
       <c r="N5">
-        <v>13.8665881451708</v>
+        <v>20.85033185387068</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.7971768739625</v>
+        <v>12.18915172157894</v>
       </c>
       <c r="C6">
-        <v>7.002530386788332</v>
+        <v>7.893897575583504</v>
       </c>
       <c r="D6">
-        <v>4.832489835098837</v>
+        <v>6.075757632447275</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.88606103073628</v>
+        <v>30.1396992189524</v>
       </c>
       <c r="G6">
-        <v>29.65607709615494</v>
+        <v>38.90841833897402</v>
       </c>
       <c r="H6">
-        <v>10.79453483241075</v>
+        <v>16.89043576860398</v>
       </c>
       <c r="I6">
-        <v>17.67529803472769</v>
+        <v>26.77096254325024</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.07095310562681</v>
+        <v>9.587158084342226</v>
       </c>
       <c r="L6">
-        <v>6.871411889342284</v>
+        <v>11.03313042284706</v>
       </c>
       <c r="M6">
-        <v>9.705246421887985</v>
+        <v>14.79584655409115</v>
       </c>
       <c r="N6">
-        <v>13.87559709949168</v>
+        <v>20.85310676269359</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.05740574282062</v>
+        <v>12.24922092391282</v>
       </c>
       <c r="C7">
-        <v>7.071957302790508</v>
+        <v>7.916684521186113</v>
       </c>
       <c r="D7">
-        <v>4.854539886978325</v>
+        <v>6.083688461234097</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22.00754602173229</v>
+        <v>30.1337428772373</v>
       </c>
       <c r="G7">
-        <v>29.82336011595791</v>
+        <v>38.90218918390836</v>
       </c>
       <c r="H7">
-        <v>10.79066434044016</v>
+        <v>16.87722261260638</v>
       </c>
       <c r="I7">
-        <v>17.66529007670273</v>
+        <v>26.74792163468419</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.2928532241155</v>
+        <v>9.632435069209686</v>
       </c>
       <c r="L7">
-        <v>6.899141371106335</v>
+        <v>11.02964038824107</v>
       </c>
       <c r="M7">
-        <v>9.803813561752408</v>
+        <v>14.80172018798398</v>
       </c>
       <c r="N7">
-        <v>13.81334869696932</v>
+        <v>20.83400706533486</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.2029793813829</v>
+        <v>12.51693145774518</v>
       </c>
       <c r="C8">
-        <v>7.369698654308454</v>
+        <v>8.01460251737454</v>
       </c>
       <c r="D8">
-        <v>4.94966852129794</v>
+        <v>6.117816042814496</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>22.57480456194408</v>
+        <v>30.12324393889956</v>
       </c>
       <c r="G8">
-        <v>30.61098683346361</v>
+        <v>38.89774332007374</v>
       </c>
       <c r="H8">
-        <v>10.78795159688687</v>
+        <v>16.82473600124652</v>
       </c>
       <c r="I8">
-        <v>17.64736585926206</v>
+        <v>26.65648237824481</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.22030969776885</v>
+        <v>9.834355340658433</v>
       </c>
       <c r="L8">
-        <v>7.027757278044771</v>
+        <v>11.01788217902374</v>
       </c>
       <c r="M8">
-        <v>10.23730328705497</v>
+        <v>14.83306924778963</v>
       </c>
       <c r="N8">
-        <v>13.54555220620438</v>
+        <v>20.75370481944388</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.33751860521467</v>
+        <v>13.04670945169527</v>
       </c>
       <c r="C9">
-        <v>7.92052757010625</v>
+        <v>8.196712929464688</v>
       </c>
       <c r="D9">
-        <v>5.127728443887965</v>
+        <v>6.181530022460087</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>23.79566042946281</v>
+        <v>30.15933212682852</v>
       </c>
       <c r="G9">
-        <v>32.33003726044175</v>
+        <v>38.97182329237975</v>
       </c>
       <c r="H9">
-        <v>10.8378695360158</v>
+        <v>16.74275280960575</v>
       </c>
       <c r="I9">
-        <v>17.71375323867605</v>
+        <v>26.51404477041187</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.85306490885486</v>
+        <v>10.2345116285993</v>
       </c>
       <c r="L9">
-        <v>7.301563367292211</v>
+        <v>11.00788055614694</v>
       </c>
       <c r="M9">
-        <v>11.07443534187149</v>
+        <v>14.91374046291894</v>
       </c>
       <c r="N9">
-        <v>13.04391975485273</v>
+        <v>20.61045705432221</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.75083966250283</v>
+        <v>13.43477067929405</v>
       </c>
       <c r="C10">
-        <v>8.303725939044448</v>
+        <v>8.32410055119067</v>
       </c>
       <c r="D10">
-        <v>5.25281668712804</v>
+        <v>6.226310855360278</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>24.75508610917344</v>
+        <v>30.22026606098346</v>
       </c>
       <c r="G10">
-        <v>33.69558491370206</v>
+        <v>39.07656236918482</v>
       </c>
       <c r="H10">
-        <v>10.91153932514788</v>
+        <v>16.69530746725063</v>
       </c>
       <c r="I10">
-        <v>17.83107725185058</v>
+        <v>26.43195089229962</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.940170146891</v>
+        <v>10.52804526375044</v>
       </c>
       <c r="L10">
-        <v>7.515039131300069</v>
+        <v>11.0084539398717</v>
       </c>
       <c r="M10">
-        <v>11.67570428030576</v>
+        <v>14.98439241893219</v>
       </c>
       <c r="N10">
-        <v>12.68847021752713</v>
+        <v>20.51380509422977</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.36094285241942</v>
+        <v>13.61022568841254</v>
       </c>
       <c r="C11">
-        <v>8.473198789703707</v>
+        <v>8.380585439687838</v>
       </c>
       <c r="D11">
-        <v>5.308369289345747</v>
+        <v>6.246226783203035</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>25.20431958144081</v>
+        <v>30.25540967851281</v>
       </c>
       <c r="G11">
-        <v>34.33817863069023</v>
+        <v>39.13506070923553</v>
       </c>
       <c r="H11">
-        <v>10.95379979417236</v>
+        <v>16.67650356909381</v>
       </c>
       <c r="I11">
-        <v>17.90075624131767</v>
+        <v>26.39951616079822</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.4106421103423</v>
+        <v>10.66086579809631</v>
       </c>
       <c r="L11">
-        <v>7.61464254244435</v>
+        <v>11.01042467591382</v>
       </c>
       <c r="M11">
-        <v>11.94522792816879</v>
+        <v>15.01892872427734</v>
       </c>
       <c r="N11">
-        <v>12.52933276204198</v>
+        <v>20.4716843834547</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.58731939168946</v>
+        <v>13.6764452582505</v>
       </c>
       <c r="C12">
-        <v>8.536667323265728</v>
+        <v>8.401757988096008</v>
       </c>
       <c r="D12">
-        <v>5.329202900654878</v>
+        <v>6.253701649212987</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>25.37620752003996</v>
+        <v>30.26977904406146</v>
       </c>
       <c r="G12">
-        <v>34.58451536746786</v>
+        <v>39.15876334089234</v>
       </c>
       <c r="H12">
-        <v>10.97111908465636</v>
+        <v>16.66978287134621</v>
       </c>
       <c r="I12">
-        <v>17.92960262833005</v>
+        <v>26.38794104969791</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.58537312875468</v>
+        <v>10.71101039955074</v>
       </c>
       <c r="L12">
-        <v>7.652702827956335</v>
+        <v>11.01141574408444</v>
       </c>
       <c r="M12">
-        <v>12.04664496165423</v>
+        <v>15.03234413921723</v>
       </c>
       <c r="N12">
-        <v>12.46941627784833</v>
+        <v>20.45599869050415</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.53877120131024</v>
+        <v>13.6621945681453</v>
       </c>
       <c r="C13">
-        <v>8.523029803567079</v>
+        <v>8.397207855653695</v>
       </c>
       <c r="D13">
-        <v>5.324725169386381</v>
+        <v>6.252094799366893</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>25.33911049227395</v>
+        <v>30.26663725895551</v>
       </c>
       <c r="G13">
-        <v>34.53133002377443</v>
+        <v>39.15358977170987</v>
       </c>
       <c r="H13">
-        <v>10.96732959956219</v>
+        <v>16.67121250298999</v>
       </c>
       <c r="I13">
-        <v>17.9232787803664</v>
+        <v>26.39040248641865</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.54789349023705</v>
+        <v>10.7002183758156</v>
       </c>
       <c r="L13">
-        <v>7.644490866048839</v>
+        <v>11.01119143115848</v>
       </c>
       <c r="M13">
-        <v>12.02483271840949</v>
+        <v>15.02944001047146</v>
       </c>
       <c r="N13">
-        <v>12.48230536639844</v>
+        <v>20.45936513780327</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.37965993155704</v>
+        <v>13.61567842177145</v>
       </c>
       <c r="C14">
-        <v>8.478434598808834</v>
+        <v>8.382331704505043</v>
       </c>
       <c r="D14">
-        <v>5.310087398669582</v>
+        <v>6.246843093078244</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>25.21842572342773</v>
+        <v>30.25657062666437</v>
       </c>
       <c r="G14">
-        <v>34.35838517700473</v>
+        <v>39.13697972697061</v>
       </c>
       <c r="H14">
-        <v>10.95519795049158</v>
+        <v>16.67594263664409</v>
       </c>
       <c r="I14">
-        <v>17.90307948018949</v>
+        <v>26.3985496896478</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.42508580071923</v>
+        <v>10.66499454105319</v>
       </c>
       <c r="L14">
-        <v>7.617767004908066</v>
+        <v>11.01050131231947</v>
       </c>
       <c r="M14">
-        <v>11.95358487646093</v>
+        <v>15.02002570261024</v>
       </c>
       <c r="N14">
-        <v>12.52439660498332</v>
+        <v>20.47038861695344</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.28159523192465</v>
+        <v>13.58715517201474</v>
       </c>
       <c r="C15">
-        <v>8.451026430532051</v>
+        <v>8.373191176551472</v>
       </c>
       <c r="D15">
-        <v>5.301094661003365</v>
+        <v>6.243617521716702</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>25.14473188170549</v>
+        <v>30.25054251950679</v>
       </c>
       <c r="G15">
-        <v>34.25284008107175</v>
+        <v>39.12700719782664</v>
       </c>
       <c r="H15">
-        <v>10.94794010032566</v>
+        <v>16.67889207016854</v>
       </c>
       <c r="I15">
-        <v>17.89103066802097</v>
+        <v>26.40363221925712</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.3494173831023</v>
+        <v>10.64339773701894</v>
       </c>
       <c r="L15">
-        <v>7.601442038242921</v>
+        <v>11.01011043960038</v>
       </c>
       <c r="M15">
-        <v>11.9098575088853</v>
+        <v>15.01430286490837</v>
       </c>
       <c r="N15">
-        <v>12.55022301045334</v>
+        <v>20.47717523165633</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.71031287568899</v>
+        <v>13.42327686157052</v>
       </c>
       <c r="C16">
-        <v>8.292551986290697</v>
+        <v>8.320379106049614</v>
       </c>
       <c r="D16">
-        <v>5.249158256651427</v>
+        <v>6.22500002319402</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>24.72597917150592</v>
+        <v>30.21811822203179</v>
       </c>
       <c r="G16">
-        <v>33.65401376755047</v>
+        <v>39.07295693209283</v>
       </c>
       <c r="H16">
-        <v>10.90895850785572</v>
+        <v>16.69659229670689</v>
       </c>
       <c r="I16">
-        <v>17.8268615987185</v>
+        <v>26.43416948386858</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.9089422892662</v>
+        <v>10.51934656526845</v>
       </c>
       <c r="L16">
-        <v>7.508578598318572</v>
+        <v>11.00835946484589</v>
       </c>
       <c r="M16">
-        <v>11.6580035254694</v>
+        <v>14.98218299377609</v>
       </c>
       <c r="N16">
-        <v>12.69891979773212</v>
+        <v>20.5165948526484</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.35148725646066</v>
+        <v>13.32241886650038</v>
       </c>
       <c r="C17">
-        <v>8.194083030726375</v>
+        <v>8.287600883568508</v>
       </c>
       <c r="D17">
-        <v>5.216944636597407</v>
+        <v>6.213461215159289</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.47231406834898</v>
+        <v>30.20012436586284</v>
       </c>
       <c r="G17">
-        <v>33.2920771135046</v>
+        <v>39.04257187351251</v>
       </c>
       <c r="H17">
-        <v>10.88732647989084</v>
+        <v>16.70816285725927</v>
       </c>
       <c r="I17">
-        <v>17.79175504898482</v>
+        <v>26.45416157116084</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.63258505490737</v>
+        <v>10.44302754721494</v>
       </c>
       <c r="L17">
-        <v>7.452236741202017</v>
+        <v>11.0077225079341</v>
       </c>
       <c r="M17">
-        <v>11.50242151823322</v>
+        <v>14.96308717326358</v>
       </c>
       <c r="N17">
-        <v>12.7907799153579</v>
+        <v>20.54124975610944</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.14200677331371</v>
+        <v>13.26431055419739</v>
       </c>
       <c r="C18">
-        <v>8.1369904776517</v>
+        <v>8.268610258964561</v>
       </c>
       <c r="D18">
-        <v>5.198289571716868</v>
+        <v>6.206781646400637</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.32761970908822</v>
+        <v>30.19047405634407</v>
       </c>
       <c r="G18">
-        <v>33.0859191963668</v>
+        <v>39.02611735454605</v>
       </c>
       <c r="H18">
-        <v>10.8757041982528</v>
+        <v>16.71507951833352</v>
       </c>
       <c r="I18">
-        <v>17.77309077880425</v>
+        <v>26.46612260011933</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.471364930807</v>
+        <v>10.39906694522722</v>
       </c>
       <c r="L18">
-        <v>7.420065878101926</v>
+        <v>11.00751716367173</v>
       </c>
       <c r="M18">
-        <v>11.41256220702953</v>
+        <v>14.95232978492218</v>
       </c>
       <c r="N18">
-        <v>12.84385760956731</v>
+        <v>20.55560449155482</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.0705470739618</v>
+        <v>13.24462141886859</v>
       </c>
       <c r="C19">
-        <v>8.117582025288627</v>
+        <v>8.262156951512379</v>
       </c>
       <c r="D19">
-        <v>5.191951811017101</v>
+        <v>6.204512760041286</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>24.27883810921439</v>
+        <v>30.1873269055042</v>
       </c>
       <c r="G19">
-        <v>33.01646680705507</v>
+        <v>39.02072196458295</v>
       </c>
       <c r="H19">
-        <v>10.87190813668852</v>
+        <v>16.71746629816552</v>
       </c>
       <c r="I19">
-        <v>17.76703030224621</v>
+        <v>26.47025173006033</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.41638833512051</v>
+        <v>10.38417320751032</v>
       </c>
       <c r="L19">
-        <v>7.409214314491468</v>
+        <v>11.00747532361862</v>
       </c>
       <c r="M19">
-        <v>11.38207573336476</v>
+        <v>14.94872655452176</v>
       </c>
       <c r="N19">
-        <v>12.86187107481244</v>
+        <v>20.56049465596058</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.39000456598192</v>
+        <v>13.33316595156756</v>
       </c>
       <c r="C20">
-        <v>8.204612483889864</v>
+        <v>8.291104455190478</v>
       </c>
       <c r="D20">
-        <v>5.220387003405783</v>
+        <v>6.21469397591911</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>24.49919271808103</v>
+        <v>30.20196751228827</v>
       </c>
       <c r="G20">
-        <v>33.33039756598394</v>
+        <v>39.0457006903913</v>
       </c>
       <c r="H20">
-        <v>10.88954396921366</v>
+        <v>16.70690407648186</v>
       </c>
       <c r="I20">
-        <v>17.79533321190651</v>
+        <v>26.45198554412796</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.66223813290521</v>
+        <v>10.45115881859734</v>
       </c>
       <c r="L20">
-        <v>7.458210173353677</v>
+        <v>11.00777365599542</v>
       </c>
       <c r="M20">
-        <v>11.51902260724802</v>
+        <v>14.96509661531595</v>
       </c>
       <c r="N20">
-        <v>12.78097634470952</v>
+        <v>20.53860721055165</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.42652061835625</v>
+        <v>13.62934786821257</v>
       </c>
       <c r="C21">
-        <v>8.491552542103106</v>
+        <v>8.386707132172724</v>
       </c>
       <c r="D21">
-        <v>5.314392441758993</v>
+        <v>6.248387472451916</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>25.25382613558507</v>
+        <v>30.25949869538043</v>
       </c>
       <c r="G21">
-        <v>34.40910240727112</v>
+        <v>39.14181650637074</v>
       </c>
       <c r="H21">
-        <v>10.9587251245416</v>
+        <v>16.67454242578421</v>
       </c>
       <c r="I21">
-        <v>17.90894481058688</v>
+        <v>26.39613745639878</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.46125010099546</v>
+        <v>10.67534513644869</v>
       </c>
       <c r="L21">
-        <v>7.625607272444471</v>
+        <v>11.01069738258987</v>
       </c>
       <c r="M21">
-        <v>11.97453012946852</v>
+        <v>15.02278182010124</v>
       </c>
       <c r="N21">
-        <v>12.51202419542313</v>
+        <v>20.46714358363271</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.07683477942043</v>
+        <v>13.82160037075646</v>
       </c>
       <c r="C22">
-        <v>8.6749611793594</v>
+        <v>8.447920983140762</v>
       </c>
       <c r="D22">
-        <v>5.374643793346758</v>
+        <v>6.270017736192424</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>25.7573321030956</v>
+        <v>30.30328060629374</v>
       </c>
       <c r="G22">
-        <v>35.13155895683334</v>
+        <v>39.21366571819411</v>
       </c>
       <c r="H22">
-        <v>11.01163779082507</v>
+        <v>16.65572340520248</v>
       </c>
       <c r="I22">
-        <v>17.99759123057608</v>
+        <v>26.36376015162291</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.96349736029407</v>
+        <v>10.82095836493279</v>
       </c>
       <c r="L22">
-        <v>7.737001559015572</v>
+        <v>11.01403446129637</v>
       </c>
       <c r="M22">
-        <v>12.26844184913561</v>
+        <v>15.06244460604091</v>
       </c>
       <c r="N22">
-        <v>12.33825093035627</v>
+        <v>20.42197923612924</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.7322086118126</v>
+        <v>13.71913359227417</v>
       </c>
       <c r="C23">
-        <v>8.577451995644655</v>
+        <v>8.415368115527981</v>
       </c>
       <c r="D23">
-        <v>5.342597835107108</v>
+        <v>6.258509444259548</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>25.48767790177561</v>
+        <v>30.27935013084419</v>
       </c>
       <c r="G23">
-        <v>34.74439548931095</v>
+        <v>39.17449580530423</v>
       </c>
       <c r="H23">
-        <v>10.98267357849484</v>
+        <v>16.6655540891358</v>
       </c>
       <c r="I23">
-        <v>17.94892384929664</v>
+        <v>26.38066296088373</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.69725200127008</v>
+        <v>10.74334056003653</v>
       </c>
       <c r="L23">
-        <v>7.677371125402749</v>
+        <v>11.01212328711178</v>
       </c>
       <c r="M23">
-        <v>12.11194286000584</v>
+        <v>15.04109881388765</v>
       </c>
       <c r="N23">
-        <v>12.4308213380797</v>
+        <v>20.4459436176495</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.37260082147786</v>
+        <v>13.32830757461037</v>
       </c>
       <c r="C24">
-        <v>8.199853616849296</v>
+        <v>8.289520944718788</v>
       </c>
       <c r="D24">
-        <v>5.218831129278077</v>
+        <v>6.214136787178429</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.48703732121587</v>
+        <v>30.20113206166857</v>
       </c>
       <c r="G24">
-        <v>33.31306688972311</v>
+        <v>39.04428299217707</v>
       </c>
       <c r="H24">
-        <v>10.88853891046413</v>
+        <v>16.70747234708572</v>
       </c>
       <c r="I24">
-        <v>17.79371080199932</v>
+        <v>26.45296787036412</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.6488392632062</v>
+        <v>10.44748292795655</v>
       </c>
       <c r="L24">
-        <v>7.455508895660662</v>
+        <v>11.00775003084564</v>
       </c>
       <c r="M24">
-        <v>11.51151853623385</v>
+        <v>14.96418745745174</v>
       </c>
       <c r="N24">
-        <v>12.78540770849856</v>
+        <v>20.53980134366089</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.78753421397979</v>
+        <v>12.90330568858274</v>
       </c>
       <c r="C25">
-        <v>7.775209060495153</v>
+        <v>8.148546490868474</v>
       </c>
       <c r="D25">
-        <v>5.080526583044268</v>
+        <v>6.164644907028731</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.4541402633331</v>
+        <v>30.14351088703708</v>
       </c>
       <c r="G25">
-        <v>31.84667071281483</v>
+        <v>38.9429277325049</v>
       </c>
       <c r="H25">
-        <v>10.8181091325484</v>
+        <v>16.76268705648667</v>
       </c>
       <c r="I25">
-        <v>17.68423637186439</v>
+        <v>26.54862207040489</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.43120841294699</v>
+        <v>10.12612566644037</v>
       </c>
       <c r="L25">
-        <v>7.225266033852189</v>
+        <v>11.00919197151198</v>
       </c>
       <c r="M25">
-        <v>10.85000369943956</v>
+        <v>14.8898929772722</v>
       </c>
       <c r="N25">
-        <v>13.17723245630746</v>
+        <v>20.64769479242103</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_148/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_148/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.58994779371838</v>
+        <v>13.51609947498687</v>
       </c>
       <c r="C2">
-        <v>8.040477012768791</v>
+        <v>7.448196894509297</v>
       </c>
       <c r="D2">
-        <v>6.126848382458395</v>
+        <v>4.974891069303263</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.12423707289883</v>
+        <v>22.7359694778945</v>
       </c>
       <c r="G2">
-        <v>38.90214350870353</v>
+        <v>30.83632491723623</v>
       </c>
       <c r="H2">
-        <v>16.81193118659591</v>
+        <v>10.79083154210003</v>
       </c>
       <c r="I2">
-        <v>26.63419934908758</v>
+        <v>17.6491336078459</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.889463519974987</v>
+        <v>11.45900253820102</v>
       </c>
       <c r="L2">
-        <v>11.01558100805911</v>
+        <v>7.06409695718895</v>
       </c>
       <c r="M2">
-        <v>14.842873163098</v>
+        <v>10.35412494462557</v>
       </c>
       <c r="N2">
-        <v>20.73291257019853</v>
+        <v>13.4746287355995</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.37865971239469</v>
+        <v>12.5989837659076</v>
       </c>
       <c r="C3">
-        <v>7.964693567312262</v>
+        <v>7.218067891987998</v>
       </c>
       <c r="D3">
-        <v>6.100410957355625</v>
+        <v>4.901111490407986</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>30.12565910354234</v>
+        <v>22.27688055745984</v>
       </c>
       <c r="G3">
-        <v>38.89566614627927</v>
+        <v>30.19613189840267</v>
       </c>
       <c r="H3">
-        <v>16.85065633576359</v>
+        <v>10.78658022960768</v>
       </c>
       <c r="I3">
-        <v>26.70162062514474</v>
+        <v>17.65153049431143</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.730037564699936</v>
+        <v>10.75261021729601</v>
       </c>
       <c r="L3">
-        <v>11.02324636548798</v>
+        <v>6.960364280854068</v>
       </c>
       <c r="M3">
-        <v>14.81590408389555</v>
+        <v>10.0145019592941</v>
       </c>
       <c r="N3">
-        <v>20.79429618185272</v>
+        <v>13.68213986034413</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.24992547338738</v>
+        <v>12.06042222771107</v>
       </c>
       <c r="C4">
-        <v>7.916949734598361</v>
+        <v>7.072765076326122</v>
       </c>
       <c r="D4">
-        <v>6.083780789801942</v>
+        <v>4.854796743399755</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>30.13368181655331</v>
+        <v>22.00898473321551</v>
       </c>
       <c r="G4">
-        <v>38.90212889679466</v>
+        <v>29.82534466965252</v>
       </c>
       <c r="H4">
-        <v>16.87707118599172</v>
+        <v>10.79062674181841</v>
       </c>
       <c r="I4">
-        <v>26.74765762411512</v>
+        <v>17.66518698671787</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.632966189882888</v>
+        <v>10.29542145173419</v>
       </c>
       <c r="L4">
-        <v>11.02960154499391</v>
+        <v>6.899469296779912</v>
       </c>
       <c r="M4">
-        <v>14.80179190116682</v>
+        <v>9.804966511880178</v>
       </c>
       <c r="N4">
-        <v>20.83378575779217</v>
+        <v>13.81262414442591</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.19778760856527</v>
+        <v>11.83497014773163</v>
       </c>
       <c r="C5">
-        <v>7.897195553627273</v>
+        <v>7.012581410004998</v>
       </c>
       <c r="D5">
-        <v>6.076905231928023</v>
+        <v>4.835678794365906</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30.13874919876501</v>
+        <v>21.90338009210227</v>
       </c>
       <c r="G5">
-        <v>38.90738682432981</v>
+        <v>29.67988849851131</v>
       </c>
       <c r="H5">
-        <v>16.88849828565708</v>
+        <v>10.79389574497329</v>
       </c>
       <c r="I5">
-        <v>26.76758351532482</v>
+        <v>17.67370780186823</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.593666640250724</v>
+        <v>10.10322282332086</v>
       </c>
       <c r="L5">
-        <v>11.03260638962504</v>
+        <v>6.875369989013423</v>
       </c>
       <c r="M5">
-        <v>14.79666097424131</v>
+        <v>9.719450309710805</v>
       </c>
       <c r="N5">
-        <v>20.85033185387068</v>
+        <v>13.86658814517086</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.18915172157894</v>
+        <v>11.79717687396252</v>
       </c>
       <c r="C6">
-        <v>7.893897575583504</v>
+        <v>7.002530386788424</v>
       </c>
       <c r="D6">
-        <v>6.075757632447275</v>
+        <v>4.832489835098834</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>30.1396992189524</v>
+        <v>21.88606103073632</v>
       </c>
       <c r="G6">
-        <v>38.90841833897402</v>
+        <v>29.65607709615493</v>
       </c>
       <c r="H6">
-        <v>16.89043576860398</v>
+        <v>10.79453483241087</v>
       </c>
       <c r="I6">
-        <v>26.77096254325024</v>
+        <v>17.67529803472777</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.587158084342226</v>
+        <v>10.07095310562685</v>
       </c>
       <c r="L6">
-        <v>11.03313042284706</v>
+        <v>6.871411889342327</v>
       </c>
       <c r="M6">
-        <v>14.79584655409115</v>
+        <v>9.70524642188801</v>
       </c>
       <c r="N6">
-        <v>20.85310676269359</v>
+        <v>13.87559709949171</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.24922092391282</v>
+        <v>12.05740574282066</v>
       </c>
       <c r="C7">
-        <v>7.916684521186113</v>
+        <v>7.071957302790633</v>
       </c>
       <c r="D7">
-        <v>6.083688461234097</v>
+        <v>4.854539886978571</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>30.1337428772373</v>
+        <v>22.00754602173229</v>
       </c>
       <c r="G7">
-        <v>38.90218918390836</v>
+        <v>29.82336011595815</v>
       </c>
       <c r="H7">
-        <v>16.87722261260638</v>
+        <v>10.79066434044018</v>
       </c>
       <c r="I7">
-        <v>26.74792163468419</v>
+        <v>17.66529007670284</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.632435069209686</v>
+        <v>10.29285322411547</v>
       </c>
       <c r="L7">
-        <v>11.02964038824107</v>
+        <v>6.899141371106329</v>
       </c>
       <c r="M7">
-        <v>14.80172018798398</v>
+        <v>9.803813561752472</v>
       </c>
       <c r="N7">
-        <v>20.83400706533486</v>
+        <v>13.81334869696936</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.51693145774518</v>
+        <v>13.20297938138289</v>
       </c>
       <c r="C8">
-        <v>8.01460251737454</v>
+        <v>7.369698654308682</v>
       </c>
       <c r="D8">
-        <v>6.117816042814496</v>
+        <v>4.949668521297867</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>30.12324393889956</v>
+        <v>22.5748045619441</v>
       </c>
       <c r="G8">
-        <v>38.89774332007374</v>
+        <v>30.61098683346357</v>
       </c>
       <c r="H8">
-        <v>16.82473600124652</v>
+        <v>10.78795159688696</v>
       </c>
       <c r="I8">
-        <v>26.65648237824481</v>
+        <v>17.64736585926214</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.834355340658433</v>
+        <v>11.22030969776887</v>
       </c>
       <c r="L8">
-        <v>11.01788217902374</v>
+        <v>7.027757278044811</v>
       </c>
       <c r="M8">
-        <v>14.83306924778963</v>
+        <v>10.23730328705499</v>
       </c>
       <c r="N8">
-        <v>20.75370481944388</v>
+        <v>13.54555220620444</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.04670945169527</v>
+        <v>15.33751860521464</v>
       </c>
       <c r="C9">
-        <v>8.196712929464688</v>
+        <v>7.920527570106368</v>
       </c>
       <c r="D9">
-        <v>6.181530022460087</v>
+        <v>5.12772844388799</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.15933212682852</v>
+        <v>23.79566042946282</v>
       </c>
       <c r="G9">
-        <v>38.97182329237975</v>
+        <v>32.33003726044165</v>
       </c>
       <c r="H9">
-        <v>16.74275280960575</v>
+        <v>10.83786953601592</v>
       </c>
       <c r="I9">
-        <v>26.51404477041187</v>
+        <v>17.7137532386761</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.2345116285993</v>
+        <v>12.85306490885487</v>
       </c>
       <c r="L9">
-        <v>11.00788055614694</v>
+        <v>7.301563367292249</v>
       </c>
       <c r="M9">
-        <v>14.91374046291894</v>
+        <v>11.0744353418715</v>
       </c>
       <c r="N9">
-        <v>20.61045705432221</v>
+        <v>13.04391975485275</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.43477067929405</v>
+        <v>16.75083966250286</v>
       </c>
       <c r="C10">
-        <v>8.32410055119067</v>
+        <v>8.303725939044348</v>
       </c>
       <c r="D10">
-        <v>6.226310855360278</v>
+        <v>5.252816687127918</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30.22026606098346</v>
+        <v>24.75508610917342</v>
       </c>
       <c r="G10">
-        <v>39.07656236918482</v>
+        <v>33.69558491370199</v>
       </c>
       <c r="H10">
-        <v>16.69530746725063</v>
+        <v>10.91153932514789</v>
       </c>
       <c r="I10">
-        <v>26.43195089229962</v>
+        <v>17.8310772518505</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.52804526375044</v>
+        <v>13.94017014689103</v>
       </c>
       <c r="L10">
-        <v>11.0084539398717</v>
+        <v>7.515039131300143</v>
       </c>
       <c r="M10">
-        <v>14.98439241893219</v>
+        <v>11.67570428030578</v>
       </c>
       <c r="N10">
-        <v>20.51380509422977</v>
+        <v>12.68847021752707</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.61022568841254</v>
+        <v>17.3609428524195</v>
       </c>
       <c r="C11">
-        <v>8.380585439687838</v>
+        <v>8.473198789703803</v>
       </c>
       <c r="D11">
-        <v>6.246226783203035</v>
+        <v>5.308369289345813</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>30.25540967851281</v>
+        <v>25.20431958144059</v>
       </c>
       <c r="G11">
-        <v>39.13506070923553</v>
+        <v>34.33817863069002</v>
       </c>
       <c r="H11">
-        <v>16.67650356909381</v>
+        <v>10.95379979417224</v>
       </c>
       <c r="I11">
-        <v>26.39951616079822</v>
+        <v>17.90075624131742</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.66086579809631</v>
+        <v>14.41064211034238</v>
       </c>
       <c r="L11">
-        <v>11.01042467591382</v>
+        <v>7.614642542444357</v>
       </c>
       <c r="M11">
-        <v>15.01892872427734</v>
+        <v>11.94522792816876</v>
       </c>
       <c r="N11">
-        <v>20.4716843834547</v>
+        <v>12.52933276204179</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.6764452582505</v>
+        <v>17.58731939168949</v>
       </c>
       <c r="C12">
-        <v>8.401757988096008</v>
+        <v>8.536667323265808</v>
       </c>
       <c r="D12">
-        <v>6.253701649212987</v>
+        <v>5.329202900654874</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>30.26977904406146</v>
+        <v>25.37620752003993</v>
       </c>
       <c r="G12">
-        <v>39.15876334089234</v>
+        <v>34.58451536746788</v>
       </c>
       <c r="H12">
-        <v>16.66978287134621</v>
+        <v>10.97111908465632</v>
       </c>
       <c r="I12">
-        <v>26.38794104969791</v>
+        <v>17.92960262833004</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.71101039955074</v>
+        <v>14.58537312875471</v>
       </c>
       <c r="L12">
-        <v>11.01141574408444</v>
+        <v>7.652702827956335</v>
       </c>
       <c r="M12">
-        <v>15.03234413921723</v>
+        <v>12.04664496165423</v>
       </c>
       <c r="N12">
-        <v>20.45599869050415</v>
+        <v>12.46941627784833</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.6621945681453</v>
+        <v>17.53877120131031</v>
       </c>
       <c r="C13">
-        <v>8.397207855653695</v>
+        <v>8.523029803566851</v>
       </c>
       <c r="D13">
-        <v>6.252094799366893</v>
+        <v>5.324725169386448</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>30.26663725895551</v>
+        <v>25.33911049227385</v>
       </c>
       <c r="G13">
-        <v>39.15358977170987</v>
+        <v>34.53133002377426</v>
       </c>
       <c r="H13">
-        <v>16.67121250298999</v>
+        <v>10.9673295995622</v>
       </c>
       <c r="I13">
-        <v>26.39040248641865</v>
+        <v>17.92327878036627</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.7002183758156</v>
+        <v>14.54789349023712</v>
       </c>
       <c r="L13">
-        <v>11.01119143115848</v>
+        <v>7.644490866048839</v>
       </c>
       <c r="M13">
-        <v>15.02944001047146</v>
+        <v>12.02483271840947</v>
       </c>
       <c r="N13">
-        <v>20.45936513780327</v>
+        <v>12.48230536639837</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.61567842177145</v>
+        <v>17.37965993155702</v>
       </c>
       <c r="C14">
-        <v>8.382331704505043</v>
+        <v>8.478434598809057</v>
       </c>
       <c r="D14">
-        <v>6.246843093078244</v>
+        <v>5.31008739866958</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>30.25657062666437</v>
+        <v>25.2184257234277</v>
       </c>
       <c r="G14">
-        <v>39.13697972697061</v>
+        <v>34.35838517700466</v>
       </c>
       <c r="H14">
-        <v>16.67594263664409</v>
+        <v>10.95519795049167</v>
       </c>
       <c r="I14">
-        <v>26.3985496896478</v>
+        <v>17.90307948018951</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.66499454105319</v>
+        <v>14.42508580071926</v>
       </c>
       <c r="L14">
-        <v>11.01050131231947</v>
+        <v>7.617767004908028</v>
       </c>
       <c r="M14">
-        <v>15.02002570261024</v>
+        <v>11.95358487646094</v>
       </c>
       <c r="N14">
-        <v>20.47038861695344</v>
+        <v>12.52439660498332</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.58715517201474</v>
+        <v>17.28159523192461</v>
       </c>
       <c r="C15">
-        <v>8.373191176551472</v>
+        <v>8.451026430532151</v>
       </c>
       <c r="D15">
-        <v>6.243617521716702</v>
+        <v>5.301094661003654</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>30.25054251950679</v>
+        <v>25.14473188170558</v>
       </c>
       <c r="G15">
-        <v>39.12700719782664</v>
+        <v>34.25284008107188</v>
       </c>
       <c r="H15">
-        <v>16.67889207016854</v>
+        <v>10.94794010032576</v>
       </c>
       <c r="I15">
-        <v>26.40363221925712</v>
+        <v>17.89103066802112</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.64339773701894</v>
+        <v>14.34941738310226</v>
       </c>
       <c r="L15">
-        <v>11.01011043960038</v>
+        <v>7.601442038242916</v>
       </c>
       <c r="M15">
-        <v>15.01430286490837</v>
+        <v>11.90985750888532</v>
       </c>
       <c r="N15">
-        <v>20.47717523165633</v>
+        <v>12.55022301045344</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.42327686157052</v>
+        <v>16.71031287568894</v>
       </c>
       <c r="C16">
-        <v>8.320379106049614</v>
+        <v>8.292551986290457</v>
       </c>
       <c r="D16">
-        <v>6.22500002319402</v>
+        <v>5.249158256651418</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30.21811822203179</v>
+        <v>24.72597917150593</v>
       </c>
       <c r="G16">
-        <v>39.07295693209283</v>
+        <v>33.65401376755057</v>
       </c>
       <c r="H16">
-        <v>16.69659229670689</v>
+        <v>10.90895850785567</v>
       </c>
       <c r="I16">
-        <v>26.43416948386858</v>
+        <v>17.82686159871849</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.51934656526845</v>
+        <v>13.90894228926612</v>
       </c>
       <c r="L16">
-        <v>11.00835946484589</v>
+        <v>7.508578598318532</v>
       </c>
       <c r="M16">
-        <v>14.98218299377609</v>
+        <v>11.6580035254694</v>
       </c>
       <c r="N16">
-        <v>20.5165948526484</v>
+        <v>12.69891979773208</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.32241886650038</v>
+        <v>16.3514872564607</v>
       </c>
       <c r="C17">
-        <v>8.287600883568508</v>
+        <v>8.194083030726571</v>
       </c>
       <c r="D17">
-        <v>6.213461215159289</v>
+        <v>5.216944636597336</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30.20012436586284</v>
+        <v>24.47231406834911</v>
       </c>
       <c r="G17">
-        <v>39.04257187351251</v>
+        <v>33.29207711350472</v>
       </c>
       <c r="H17">
-        <v>16.70816285725927</v>
+        <v>10.8873264798909</v>
       </c>
       <c r="I17">
-        <v>26.45416157116084</v>
+        <v>17.79175504898498</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.44302754721494</v>
+        <v>13.63258505490738</v>
       </c>
       <c r="L17">
-        <v>11.0077225079341</v>
+        <v>7.452236741202007</v>
       </c>
       <c r="M17">
-        <v>14.96308717326358</v>
+        <v>11.50242151823323</v>
       </c>
       <c r="N17">
-        <v>20.54124975610944</v>
+        <v>12.79077991535806</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.26431055419739</v>
+        <v>16.14200677331377</v>
       </c>
       <c r="C18">
-        <v>8.268610258964561</v>
+        <v>8.136990477651583</v>
       </c>
       <c r="D18">
-        <v>6.206781646400637</v>
+        <v>5.198289571716979</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>30.19047405634407</v>
+        <v>24.32761970908825</v>
       </c>
       <c r="G18">
-        <v>39.02611735454605</v>
+        <v>33.08591919636679</v>
       </c>
       <c r="H18">
-        <v>16.71507951833352</v>
+        <v>10.87570419825286</v>
       </c>
       <c r="I18">
-        <v>26.46612260011933</v>
+        <v>17.77309077880428</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.39906694522722</v>
+        <v>13.47136493080699</v>
       </c>
       <c r="L18">
-        <v>11.00751716367173</v>
+        <v>7.420065878102029</v>
       </c>
       <c r="M18">
-        <v>14.95232978492218</v>
+        <v>11.41256220702955</v>
       </c>
       <c r="N18">
-        <v>20.55560449155482</v>
+        <v>12.84385760956738</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.24462141886859</v>
+        <v>16.07054707396183</v>
       </c>
       <c r="C19">
-        <v>8.262156951512379</v>
+        <v>8.117582025288408</v>
       </c>
       <c r="D19">
-        <v>6.204512760041286</v>
+        <v>5.191951811017278</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30.1873269055042</v>
+        <v>24.27883810921425</v>
       </c>
       <c r="G19">
-        <v>39.02072196458295</v>
+        <v>33.01646680705495</v>
       </c>
       <c r="H19">
-        <v>16.71746629816552</v>
+        <v>10.87190813668849</v>
       </c>
       <c r="I19">
-        <v>26.47025173006033</v>
+        <v>17.76703030224605</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.38417320751032</v>
+        <v>13.41638833512052</v>
       </c>
       <c r="L19">
-        <v>11.00747532361862</v>
+        <v>7.409214314491512</v>
       </c>
       <c r="M19">
-        <v>14.94872655452176</v>
+        <v>11.38207573336475</v>
       </c>
       <c r="N19">
-        <v>20.56049465596058</v>
+        <v>12.86187107481234</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.33316595156756</v>
+        <v>16.39000456598192</v>
       </c>
       <c r="C20">
-        <v>8.291104455190478</v>
+        <v>8.204612483889854</v>
       </c>
       <c r="D20">
-        <v>6.21469397591911</v>
+        <v>5.220387003405726</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.20196751228827</v>
+        <v>24.49919271808102</v>
       </c>
       <c r="G20">
-        <v>39.0457006903913</v>
+        <v>33.33039756598393</v>
       </c>
       <c r="H20">
-        <v>16.70690407648186</v>
+        <v>10.88954396921362</v>
       </c>
       <c r="I20">
-        <v>26.45198554412796</v>
+        <v>17.79533321190648</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.45115881859734</v>
+        <v>13.66223813290522</v>
       </c>
       <c r="L20">
-        <v>11.00777365599542</v>
+        <v>7.458210173353681</v>
       </c>
       <c r="M20">
-        <v>14.96509661531595</v>
+        <v>11.51902260724801</v>
       </c>
       <c r="N20">
-        <v>20.53860721055165</v>
+        <v>12.78097634470948</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.62934786821257</v>
+        <v>17.42652061835626</v>
       </c>
       <c r="C21">
-        <v>8.386707132172724</v>
+        <v>8.491552542102887</v>
       </c>
       <c r="D21">
-        <v>6.248387472451916</v>
+        <v>5.314392441759101</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>30.25949869538043</v>
+        <v>25.25382613558508</v>
       </c>
       <c r="G21">
-        <v>39.14181650637074</v>
+        <v>34.40910240727123</v>
       </c>
       <c r="H21">
-        <v>16.67454242578421</v>
+        <v>10.95872512454157</v>
       </c>
       <c r="I21">
-        <v>26.39613745639878</v>
+        <v>17.9089448105869</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.67534513644869</v>
+        <v>14.46125010099543</v>
       </c>
       <c r="L21">
-        <v>11.01069738258987</v>
+        <v>7.625607272444516</v>
       </c>
       <c r="M21">
-        <v>15.02278182010124</v>
+        <v>11.97453012946852</v>
       </c>
       <c r="N21">
-        <v>20.46714358363271</v>
+        <v>12.51202419542313</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.82160037075646</v>
+        <v>18.07683477942047</v>
       </c>
       <c r="C22">
-        <v>8.447920983140762</v>
+        <v>8.674961179359602</v>
       </c>
       <c r="D22">
-        <v>6.270017736192424</v>
+        <v>5.374643793346934</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>30.30328060629374</v>
+        <v>25.75733210309547</v>
       </c>
       <c r="G22">
-        <v>39.21366571819411</v>
+        <v>35.13155895683317</v>
       </c>
       <c r="H22">
-        <v>16.65572340520248</v>
+        <v>11.01163779082502</v>
       </c>
       <c r="I22">
-        <v>26.36376015162291</v>
+        <v>17.99759123057598</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.82095836493279</v>
+        <v>14.96349736029415</v>
       </c>
       <c r="L22">
-        <v>11.01403446129637</v>
+        <v>7.737001559015604</v>
       </c>
       <c r="M22">
-        <v>15.06244460604091</v>
+        <v>12.26844184913562</v>
       </c>
       <c r="N22">
-        <v>20.42197923612924</v>
+        <v>12.3382509303562</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.71913359227417</v>
+        <v>17.73220861181253</v>
       </c>
       <c r="C23">
-        <v>8.415368115527981</v>
+        <v>8.577451995644662</v>
       </c>
       <c r="D23">
-        <v>6.258509444259548</v>
+        <v>5.342597835107195</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>30.27935013084419</v>
+        <v>25.48767790177566</v>
       </c>
       <c r="G23">
-        <v>39.17449580530423</v>
+        <v>34.74439548931101</v>
       </c>
       <c r="H23">
-        <v>16.6655540891358</v>
+        <v>10.98267357849488</v>
       </c>
       <c r="I23">
-        <v>26.38066296088373</v>
+        <v>17.94892384929671</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.74334056003653</v>
+        <v>14.69725200127002</v>
       </c>
       <c r="L23">
-        <v>11.01212328711178</v>
+        <v>7.677371125402731</v>
       </c>
       <c r="M23">
-        <v>15.04109881388765</v>
+        <v>12.11194286000587</v>
       </c>
       <c r="N23">
-        <v>20.4459436176495</v>
+        <v>12.4308213380797</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.32830757461037</v>
+        <v>16.37260082147783</v>
       </c>
       <c r="C24">
-        <v>8.289520944718788</v>
+        <v>8.199853616849285</v>
       </c>
       <c r="D24">
-        <v>6.214136787178429</v>
+        <v>5.218831129278263</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.20113206166857</v>
+        <v>24.48703732121601</v>
       </c>
       <c r="G24">
-        <v>39.04428299217707</v>
+        <v>33.31306688972334</v>
       </c>
       <c r="H24">
-        <v>16.70747234708572</v>
+        <v>10.88853891046418</v>
       </c>
       <c r="I24">
-        <v>26.45296787036412</v>
+        <v>17.79371080199946</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.44748292795655</v>
+        <v>13.64883926320614</v>
       </c>
       <c r="L24">
-        <v>11.00775003084564</v>
+        <v>7.455508895660618</v>
       </c>
       <c r="M24">
-        <v>14.96418745745174</v>
+        <v>11.51151853623387</v>
       </c>
       <c r="N24">
-        <v>20.53980134366089</v>
+        <v>12.78540770849863</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.90330568858274</v>
+        <v>14.78753421397976</v>
       </c>
       <c r="C25">
-        <v>8.148546490868474</v>
+        <v>7.775209060495023</v>
       </c>
       <c r="D25">
-        <v>6.164644907028731</v>
+        <v>5.080526583044309</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.14351088703708</v>
+        <v>23.45414026333315</v>
       </c>
       <c r="G25">
-        <v>38.9429277325049</v>
+        <v>31.846670712815</v>
       </c>
       <c r="H25">
-        <v>16.76268705648667</v>
+        <v>10.81810913254845</v>
       </c>
       <c r="I25">
-        <v>26.54862207040489</v>
+        <v>17.6842363718645</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.12612566644037</v>
+        <v>12.43120841294697</v>
       </c>
       <c r="L25">
-        <v>11.00919197151198</v>
+        <v>7.225266033852251</v>
       </c>
       <c r="M25">
-        <v>14.8898929772722</v>
+        <v>10.85000369943959</v>
       </c>
       <c r="N25">
-        <v>20.64769479242103</v>
+        <v>13.1772324563075</v>
       </c>
       <c r="O25">
         <v>0</v>
